--- a/data/listDataFeed.xlsx
+++ b/data/listDataFeed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\sellshit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782D7433-0907-4E75-A852-FBBBCC8C70E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A4745D-BDAA-42AD-AC5B-E855C63E6EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1303,8 +1303,8 @@
   </sheetPr>
   <dimension ref="A1:Y979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G65" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
